--- a/DPMMVCCore/DPM_Testing/wwwroot/DPM/src/assets/Library/MSS_Library.xlsx
+++ b/DPMMVCCore/DPM_Testing/wwwroot/DPM/src/assets/Library/MSS_Library.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DPMCore\DPMMVCCore\DPM_Testing\wwwroot\DPM\src\assets\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08DF0E6-350E-468F-8D5B-3D4C4698A59D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB4E5F7-F1ED-4E16-8CC7-FD21619EAF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B1B726B-1A6F-49DC-A52C-72A7372810BE}"/>
   </bookViews>
@@ -6612,18 +6612,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
@@ -6729,6 +6717,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7046,7 +7046,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B308AE42-9AB3-45A6-99C2-0966C5196C51}">
   <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7056,1566 +7058,1566 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="80" t="s">
         <v>610</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="87" t="s">
+      <c r="H1" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="88" t="s">
+      <c r="I1" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="J1" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="K1" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="L1" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="90" t="s">
+      <c r="M1" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="90" t="s">
+      <c r="N1" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="90" t="s">
+      <c r="O1" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="90" t="s">
+      <c r="P1" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="90" t="s">
+      <c r="Q1" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="90" t="s">
+      <c r="R1" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="90" t="s">
+      <c r="S1" s="86" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57">
+      <c r="B2" s="52"/>
+      <c r="C2" s="53">
         <v>464</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="54" t="s">
         <v>388</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="55" t="s">
         <v>389</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="54" t="s">
         <v>390</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="55" t="s">
         <v>391</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="54" t="s">
         <v>392</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="K2" s="59" t="s">
+      <c r="K2" s="55" t="s">
         <v>394</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="55" t="s">
         <v>395</v>
       </c>
-      <c r="M2" s="80" t="s">
+      <c r="M2" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="N2" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="80">
+      <c r="O2" s="76">
         <v>350</v>
       </c>
-      <c r="P2" s="80" t="s">
+      <c r="P2" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="Q2" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="80" t="s">
+      <c r="R2" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="80" t="s">
+      <c r="S2" s="76" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="61">
+      <c r="A3" s="56"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="57">
         <v>464</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="55" t="s">
         <v>396</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="58" t="s">
         <v>397</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="59" t="s">
         <v>398</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="55" t="s">
         <v>399</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="59" t="s">
         <v>400</v>
       </c>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
     </row>
     <row r="4" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="67"/>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="63"/>
+      <c r="B4" s="77" t="s">
         <v>385</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="54">
         <v>37</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="55" t="s">
         <v>387</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="54" t="s">
         <v>401</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="55" t="s">
         <v>402</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="55" t="s">
         <v>404</v>
       </c>
-      <c r="I4" s="59" t="s">
+      <c r="I4" s="55" t="s">
         <v>405</v>
       </c>
-      <c r="J4" s="58" t="s">
+      <c r="J4" s="54" t="s">
         <v>406</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="55" t="s">
         <v>407</v>
       </c>
-      <c r="L4" s="58" t="s">
+      <c r="L4" s="54" t="s">
         <v>408</v>
       </c>
-      <c r="M4" s="68"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="61">
+      <c r="A5" s="63"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="57">
         <v>37</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="55" t="s">
         <v>387</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="58" t="s">
         <v>409</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="54" t="s">
         <v>410</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="58" t="s">
         <v>411</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="59" t="s">
         <v>412</v>
       </c>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
     </row>
     <row r="6" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
-      <c r="B6" s="55" t="s">
+      <c r="A6" s="63"/>
+      <c r="B6" s="51" t="s">
         <v>413</v>
       </c>
-      <c r="C6" s="69">
+      <c r="C6" s="65">
         <v>2</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="55" t="s">
         <v>387</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="55" t="s">
         <v>415</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="54" t="s">
         <v>416</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="55" t="s">
         <v>417</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="55" t="s">
         <v>418</v>
       </c>
-      <c r="J6" s="59" t="s">
+      <c r="J6" s="55" t="s">
         <v>419</v>
       </c>
-      <c r="K6" s="58" t="s">
+      <c r="K6" s="54" t="s">
         <v>420</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="55" t="s">
         <v>421</v>
       </c>
-      <c r="M6" s="70"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61">
+      <c r="A7" s="63"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57">
         <v>2</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="55" t="s">
         <v>387</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="58" t="s">
         <v>422</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="55" t="s">
         <v>423</v>
       </c>
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="58" t="s">
         <v>424</v>
       </c>
-      <c r="H7" s="62" t="s">
+      <c r="H7" s="58" t="s">
         <v>425</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
     </row>
-    <row r="8" spans="1:19" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
-      <c r="B8" s="81" t="s">
+    <row r="8" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="63"/>
+      <c r="B8" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="58">
         <v>77</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="58" t="s">
         <v>426</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="59" t="s">
         <v>427</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="57" t="s">
         <v>428</v>
       </c>
-      <c r="H8" s="62" t="s">
+      <c r="H8" s="58" t="s">
         <v>427</v>
       </c>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="58" t="s">
         <v>429</v>
       </c>
-      <c r="J8" s="58" t="s">
+      <c r="J8" s="54" t="s">
         <v>430</v>
       </c>
-      <c r="K8" s="62" t="s">
+      <c r="K8" s="58" t="s">
         <v>431</v>
       </c>
-      <c r="L8" s="62" t="s">
+      <c r="L8" s="58" t="s">
         <v>432</v>
       </c>
-      <c r="M8" s="71"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
-      <c r="B9" s="83" t="s">
+      <c r="A9" s="63"/>
+      <c r="B9" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="58">
         <v>77</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="58" t="s">
         <v>433</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="59" t="s">
         <v>434</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="58" t="s">
         <v>435</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="57" t="s">
         <v>436</v>
       </c>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
     </row>
     <row r="10" spans="1:19" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="67"/>
-      <c r="B10" s="55" t="s">
+      <c r="A10" s="63"/>
+      <c r="B10" s="51" t="s">
         <v>437</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="58">
         <v>46</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="65" t="s">
         <v>438</v>
       </c>
-      <c r="F10" s="62" t="s">
+      <c r="F10" s="58" t="s">
         <v>439</v>
       </c>
-      <c r="G10" s="62" t="s">
+      <c r="G10" s="58" t="s">
         <v>440</v>
       </c>
-      <c r="H10" s="62" t="s">
+      <c r="H10" s="58" t="s">
         <v>441</v>
       </c>
-      <c r="I10" s="69" t="s">
+      <c r="I10" s="65" t="s">
         <v>442</v>
       </c>
-      <c r="J10" s="69" t="s">
+      <c r="J10" s="65" t="s">
         <v>430</v>
       </c>
-      <c r="K10" s="62" t="s">
+      <c r="K10" s="58" t="s">
         <v>443</v>
       </c>
-      <c r="L10" s="63" t="s">
+      <c r="L10" s="59" t="s">
         <v>444</v>
       </c>
-      <c r="M10" s="72"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="67"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61">
+      <c r="A11" s="63"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="57">
         <v>46</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="55" t="s">
         <v>387</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="58" t="s">
         <v>445</v>
       </c>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="54" t="s">
         <v>446</v>
       </c>
-      <c r="G11" s="62" t="s">
+      <c r="G11" s="58" t="s">
         <v>447</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="55" t="s">
         <v>448</v>
       </c>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
     </row>
     <row r="12" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="67"/>
-      <c r="B12" s="55" t="s">
+      <c r="A12" s="63"/>
+      <c r="B12" s="51" t="s">
         <v>449</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="54">
         <v>42</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="55" t="s">
         <v>450</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="54" t="s">
         <v>451</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="55" t="s">
         <v>452</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="54" t="s">
         <v>453</v>
       </c>
-      <c r="H12" s="59" t="s">
+      <c r="H12" s="55" t="s">
         <v>454</v>
       </c>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="54" t="s">
         <v>455</v>
       </c>
-      <c r="J12" s="58" t="s">
+      <c r="J12" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="K12" s="58" t="s">
+      <c r="K12" s="54" t="s">
         <v>456</v>
       </c>
-      <c r="L12" s="58" t="s">
+      <c r="L12" s="54" t="s">
         <v>457</v>
       </c>
-      <c r="M12" s="68"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="67"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61">
+      <c r="A13" s="63"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="57">
         <v>42</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="55" t="s">
         <v>458</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="58" t="s">
         <v>459</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="58" t="s">
         <v>460</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="53" t="s">
         <v>461</v>
       </c>
-      <c r="H13" s="63" t="s">
+      <c r="H13" s="59" t="s">
         <v>462</v>
       </c>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
     </row>
     <row r="14" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="67"/>
-      <c r="B14" s="55" t="s">
+      <c r="A14" s="63"/>
+      <c r="B14" s="51" t="s">
         <v>463</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C14" s="58">
         <v>2</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="58" t="s">
         <v>464</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="59" t="s">
         <v>465</v>
       </c>
-      <c r="G14" s="62" t="s">
+      <c r="G14" s="58" t="s">
         <v>466</v>
       </c>
-      <c r="H14" s="62" t="s">
+      <c r="H14" s="58" t="s">
         <v>417</v>
       </c>
-      <c r="I14" s="63" t="s">
+      <c r="I14" s="59" t="s">
         <v>467</v>
       </c>
-      <c r="J14" s="62" t="s">
+      <c r="J14" s="58" t="s">
         <v>406</v>
       </c>
-      <c r="K14" s="63" t="s">
+      <c r="K14" s="59" t="s">
         <v>467</v>
       </c>
-      <c r="L14" s="63" t="s">
+      <c r="L14" s="59" t="s">
         <v>468</v>
       </c>
-      <c r="M14" s="72"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="67"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="61">
+      <c r="A15" s="63"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57">
         <v>2</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="58" t="s">
         <v>469</v>
       </c>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="58" t="s">
         <v>470</v>
       </c>
-      <c r="G15" s="62" t="s">
+      <c r="G15" s="58" t="s">
         <v>471</v>
       </c>
-      <c r="H15" s="62" t="s">
+      <c r="H15" s="58" t="s">
         <v>425</v>
       </c>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
     </row>
     <row r="16" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="67"/>
-      <c r="B16" s="55" t="s">
+      <c r="A16" s="63"/>
+      <c r="B16" s="51" t="s">
         <v>472</v>
       </c>
-      <c r="C16" s="69">
+      <c r="C16" s="65">
         <v>3</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="E16" s="65" t="s">
         <v>473</v>
       </c>
-      <c r="F16" s="69" t="s">
+      <c r="F16" s="65" t="s">
         <v>474</v>
       </c>
-      <c r="G16" s="69" t="s">
+      <c r="G16" s="65" t="s">
         <v>475</v>
       </c>
-      <c r="H16" s="73" t="s">
+      <c r="H16" s="69" t="s">
         <v>476</v>
       </c>
-      <c r="I16" s="73" t="s">
+      <c r="I16" s="69" t="s">
         <v>477</v>
       </c>
-      <c r="J16" s="69" t="s">
+      <c r="J16" s="65" t="s">
         <v>393</v>
       </c>
-      <c r="K16" s="73" t="s">
+      <c r="K16" s="69" t="s">
         <v>478</v>
       </c>
-      <c r="L16" s="73" t="s">
+      <c r="L16" s="69" t="s">
         <v>479</v>
       </c>
-      <c r="M16" s="74"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="67"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="62">
+      <c r="A17" s="63"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="58">
         <v>3</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="58" t="s">
         <v>480</v>
       </c>
-      <c r="F17" s="62" t="s">
+      <c r="F17" s="58" t="s">
         <v>481</v>
       </c>
-      <c r="G17" s="62" t="s">
+      <c r="G17" s="58" t="s">
         <v>412</v>
       </c>
-      <c r="H17" s="62" t="s">
+      <c r="H17" s="58" t="s">
         <v>482</v>
       </c>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
     </row>
     <row r="18" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="67"/>
-      <c r="B18" s="55" t="s">
+      <c r="A18" s="63"/>
+      <c r="B18" s="51" t="s">
         <v>483</v>
       </c>
-      <c r="C18" s="69">
+      <c r="C18" s="65">
         <v>3</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="E18" s="65" t="s">
         <v>484</v>
       </c>
-      <c r="F18" s="73" t="s">
+      <c r="F18" s="69" t="s">
         <v>485</v>
       </c>
-      <c r="G18" s="69" t="s">
+      <c r="G18" s="65" t="s">
         <v>466</v>
       </c>
-      <c r="H18" s="73" t="s">
+      <c r="H18" s="69" t="s">
         <v>476</v>
       </c>
-      <c r="I18" s="73" t="s">
+      <c r="I18" s="69" t="s">
         <v>486</v>
       </c>
-      <c r="J18" s="73" t="s">
+      <c r="J18" s="69" t="s">
         <v>487</v>
       </c>
-      <c r="K18" s="69" t="s">
+      <c r="K18" s="65" t="s">
         <v>488</v>
       </c>
-      <c r="L18" s="69" t="s">
+      <c r="L18" s="65" t="s">
         <v>486</v>
       </c>
-      <c r="M18" s="75"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="67"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="61">
+      <c r="A19" s="63"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="57">
         <v>3</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="58" t="s">
         <v>489</v>
       </c>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="58" t="s">
         <v>490</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="54" t="s">
         <v>491</v>
       </c>
-      <c r="H19" s="62" t="s">
+      <c r="H19" s="58" t="s">
         <v>482</v>
       </c>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
     </row>
     <row r="20" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="67"/>
-      <c r="B20" s="55" t="s">
+      <c r="A20" s="63"/>
+      <c r="B20" s="51" t="s">
         <v>492</v>
       </c>
-      <c r="C20" s="58">
+      <c r="C20" s="54">
         <v>40</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="54" t="s">
         <v>493</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="55" t="s">
         <v>494</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="G20" s="53" t="s">
         <v>495</v>
       </c>
-      <c r="H20" s="58" t="s">
+      <c r="H20" s="54" t="s">
         <v>496</v>
       </c>
-      <c r="I20" s="58" t="s">
+      <c r="I20" s="54" t="s">
         <v>497</v>
       </c>
-      <c r="J20" s="58" t="s">
+      <c r="J20" s="54" t="s">
         <v>406</v>
       </c>
-      <c r="K20" s="58" t="s">
+      <c r="K20" s="54" t="s">
         <v>498</v>
       </c>
-      <c r="L20" s="58" t="s">
+      <c r="L20" s="54" t="s">
         <v>499</v>
       </c>
-      <c r="M20" s="68"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="67"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="62">
+      <c r="A21" s="63"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="58">
         <v>40</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="E21" s="62" t="s">
+      <c r="E21" s="58" t="s">
         <v>500</v>
       </c>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="58" t="s">
         <v>501</v>
       </c>
-      <c r="G21" s="61" t="s">
+      <c r="G21" s="57" t="s">
         <v>502</v>
       </c>
-      <c r="H21" s="62" t="s">
+      <c r="H21" s="58" t="s">
         <v>503</v>
       </c>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="67"/>
-      <c r="B22" s="76" t="s">
+      <c r="A22" s="63"/>
+      <c r="B22" s="72" t="s">
         <v>504</v>
       </c>
-      <c r="C22" s="58">
+      <c r="C22" s="54">
         <v>4</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="54" t="s">
         <v>505</v>
       </c>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="54" t="s">
         <v>506</v>
       </c>
-      <c r="G22" s="58" t="s">
+      <c r="G22" s="54" t="s">
         <v>466</v>
       </c>
-      <c r="H22" s="58" t="s">
+      <c r="H22" s="54" t="s">
         <v>507</v>
       </c>
-      <c r="I22" s="58" t="s">
+      <c r="I22" s="54" t="s">
         <v>508</v>
       </c>
-      <c r="J22" s="59" t="s">
+      <c r="J22" s="55" t="s">
         <v>442</v>
       </c>
-      <c r="K22" s="58" t="s">
+      <c r="K22" s="54" t="s">
         <v>509</v>
       </c>
-      <c r="L22" s="58" t="s">
+      <c r="L22" s="54" t="s">
         <v>510</v>
       </c>
-      <c r="M22" s="68"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="68"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="67"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="62">
+      <c r="A23" s="63"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="58">
         <v>4</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="58" t="s">
         <v>511</v>
       </c>
-      <c r="E23" s="62" t="s">
+      <c r="E23" s="58" t="s">
         <v>512</v>
       </c>
-      <c r="F23" s="62" t="s">
+      <c r="F23" s="58" t="s">
         <v>513</v>
       </c>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="54" t="s">
         <v>514</v>
       </c>
-      <c r="H23" s="62" t="s">
+      <c r="H23" s="58" t="s">
         <v>515</v>
       </c>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="67"/>
-      <c r="B24" s="76" t="s">
+      <c r="A24" s="63"/>
+      <c r="B24" s="72" t="s">
         <v>516</v>
       </c>
-      <c r="C24" s="69">
+      <c r="C24" s="65">
         <v>8</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="E24" s="58" t="s">
+      <c r="E24" s="54" t="s">
         <v>517</v>
       </c>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="54" t="s">
         <v>518</v>
       </c>
-      <c r="G24" s="58" t="s">
+      <c r="G24" s="54" t="s">
         <v>519</v>
       </c>
-      <c r="H24" s="58" t="s">
+      <c r="H24" s="54" t="s">
         <v>466</v>
       </c>
-      <c r="I24" s="59" t="s">
+      <c r="I24" s="55" t="s">
         <v>520</v>
       </c>
-      <c r="J24" s="58" t="s">
+      <c r="J24" s="54" t="s">
         <v>430</v>
       </c>
-      <c r="K24" s="59" t="s">
+      <c r="K24" s="55" t="s">
         <v>521</v>
       </c>
-      <c r="L24" s="58" t="s">
+      <c r="L24" s="54" t="s">
         <v>522</v>
       </c>
-      <c r="M24" s="68"/>
-      <c r="N24" s="67"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="68"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="61">
+      <c r="A25" s="63"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57">
         <v>8</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="E25" s="62" t="s">
+      <c r="E25" s="58" t="s">
         <v>523</v>
       </c>
-      <c r="F25" s="63" t="s">
+      <c r="F25" s="59" t="s">
         <v>524</v>
       </c>
-      <c r="G25" s="62" t="s">
+      <c r="G25" s="58" t="s">
         <v>453</v>
       </c>
-      <c r="H25" s="62" t="s">
+      <c r="H25" s="58" t="s">
         <v>525</v>
       </c>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="67"/>
-      <c r="B26" s="76" t="s">
+      <c r="A26" s="63"/>
+      <c r="B26" s="72" t="s">
         <v>526</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="53">
         <v>5</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="55" t="s">
         <v>527</v>
       </c>
-      <c r="E26" s="58" t="s">
+      <c r="E26" s="54" t="s">
         <v>528</v>
       </c>
-      <c r="F26" s="58" t="s">
+      <c r="F26" s="54" t="s">
         <v>529</v>
       </c>
-      <c r="G26" s="58" t="s">
+      <c r="G26" s="54" t="s">
         <v>530</v>
       </c>
-      <c r="H26" s="58" t="s">
+      <c r="H26" s="54" t="s">
         <v>528</v>
       </c>
-      <c r="I26" s="59" t="s">
+      <c r="I26" s="55" t="s">
         <v>531</v>
       </c>
-      <c r="J26" s="58" t="s">
+      <c r="J26" s="54" t="s">
         <v>406</v>
       </c>
-      <c r="K26" s="59" t="s">
+      <c r="K26" s="55" t="s">
         <v>532</v>
       </c>
-      <c r="L26" s="59" t="s">
+      <c r="L26" s="55" t="s">
         <v>395</v>
       </c>
-      <c r="M26" s="70"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70"/>
-      <c r="R26" s="70"/>
-      <c r="S26" s="70"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="67"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="62">
+      <c r="A27" s="63"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="58">
         <v>5</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="E27" s="62" t="s">
+      <c r="E27" s="58" t="s">
         <v>533</v>
       </c>
-      <c r="F27" s="62" t="s">
+      <c r="F27" s="58" t="s">
         <v>534</v>
       </c>
-      <c r="G27" s="61" t="s">
+      <c r="G27" s="57" t="s">
         <v>535</v>
       </c>
-      <c r="H27" s="62" t="s">
+      <c r="H27" s="58" t="s">
         <v>485</v>
       </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="67"/>
-      <c r="B28" s="76" t="s">
+      <c r="A28" s="63"/>
+      <c r="B28" s="72" t="s">
         <v>536</v>
       </c>
-      <c r="C28" s="69">
+      <c r="C28" s="65">
         <v>16</v>
       </c>
-      <c r="D28" s="58" t="s">
+      <c r="D28" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="E28" s="58" t="s">
+      <c r="E28" s="54" t="s">
         <v>465</v>
       </c>
-      <c r="F28" s="58" t="s">
+      <c r="F28" s="54" t="s">
         <v>537</v>
       </c>
-      <c r="G28" s="58" t="s">
+      <c r="G28" s="54" t="s">
         <v>538</v>
       </c>
-      <c r="H28" s="58" t="s">
+      <c r="H28" s="54" t="s">
         <v>539</v>
       </c>
-      <c r="I28" s="58" t="s">
+      <c r="I28" s="54" t="s">
         <v>540</v>
       </c>
-      <c r="J28" s="58" t="s">
+      <c r="J28" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="K28" s="58" t="s">
+      <c r="K28" s="54" t="s">
         <v>541</v>
       </c>
-      <c r="L28" s="59" t="s">
+      <c r="L28" s="55" t="s">
         <v>542</v>
       </c>
-      <c r="M28" s="70"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="70"/>
-      <c r="R28" s="70"/>
-      <c r="S28" s="70"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="66"/>
+      <c r="S28" s="66"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="67"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="62">
+      <c r="A29" s="63"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="58">
         <v>16</v>
       </c>
-      <c r="D29" s="62" t="s">
+      <c r="D29" s="58" t="s">
         <v>414</v>
       </c>
-      <c r="E29" s="62" t="s">
+      <c r="E29" s="58" t="s">
         <v>493</v>
       </c>
-      <c r="F29" s="63" t="s">
+      <c r="F29" s="59" t="s">
         <v>543</v>
       </c>
-      <c r="G29" s="62" t="s">
+      <c r="G29" s="58" t="s">
         <v>544</v>
       </c>
-      <c r="H29" s="62" t="s">
+      <c r="H29" s="58" t="s">
         <v>545</v>
       </c>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="66"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="67"/>
-      <c r="B30" s="76" t="s">
+      <c r="A30" s="63"/>
+      <c r="B30" s="72" t="s">
         <v>546</v>
       </c>
-      <c r="C30" s="77">
+      <c r="C30" s="73">
         <v>120</v>
       </c>
-      <c r="D30" s="69" t="s">
+      <c r="D30" s="65" t="s">
         <v>387</v>
       </c>
-      <c r="E30" s="69" t="s">
+      <c r="E30" s="65" t="s">
         <v>547</v>
       </c>
-      <c r="F30" s="73" t="s">
+      <c r="F30" s="69" t="s">
         <v>548</v>
       </c>
-      <c r="G30" s="77" t="s">
+      <c r="G30" s="73" t="s">
         <v>549</v>
       </c>
-      <c r="H30" s="69" t="s">
+      <c r="H30" s="65" t="s">
         <v>550</v>
       </c>
-      <c r="I30" s="69" t="s">
+      <c r="I30" s="65" t="s">
         <v>392</v>
       </c>
-      <c r="J30" s="69" t="s">
+      <c r="J30" s="65" t="s">
         <v>393</v>
       </c>
-      <c r="K30" s="69" t="s">
+      <c r="K30" s="65" t="s">
         <v>551</v>
       </c>
-      <c r="L30" s="69" t="s">
+      <c r="L30" s="65" t="s">
         <v>552</v>
       </c>
-      <c r="M30" s="75"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="75"/>
-      <c r="R30" s="75"/>
-      <c r="S30" s="75"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="67"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="61">
+      <c r="A31" s="63"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="57">
         <v>120</v>
       </c>
-      <c r="D31" s="63" t="s">
+      <c r="D31" s="59" t="s">
         <v>553</v>
       </c>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="F31" s="63" t="s">
+      <c r="F31" s="59" t="s">
         <v>555</v>
       </c>
-      <c r="G31" s="61" t="s">
+      <c r="G31" s="57" t="s">
         <v>556</v>
       </c>
-      <c r="H31" s="61" t="s">
+      <c r="H31" s="57" t="s">
         <v>557</v>
       </c>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="66"/>
-      <c r="S31" s="66"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="62"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="67"/>
-      <c r="B32" s="76" t="s">
+      <c r="A32" s="63"/>
+      <c r="B32" s="72" t="s">
         <v>558</v>
       </c>
-      <c r="C32" s="58">
+      <c r="C32" s="54">
         <v>27</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="D32" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="E32" s="58" t="s">
+      <c r="E32" s="54" t="s">
         <v>559</v>
       </c>
-      <c r="F32" s="58" t="s">
+      <c r="F32" s="54" t="s">
         <v>529</v>
       </c>
-      <c r="G32" s="58" t="s">
+      <c r="G32" s="54" t="s">
         <v>560</v>
       </c>
-      <c r="H32" s="58" t="s">
+      <c r="H32" s="54" t="s">
         <v>561</v>
       </c>
-      <c r="I32" s="58" t="s">
+      <c r="I32" s="54" t="s">
         <v>562</v>
       </c>
-      <c r="J32" s="58" t="s">
+      <c r="J32" s="54" t="s">
         <v>563</v>
       </c>
-      <c r="K32" s="58" t="s">
+      <c r="K32" s="54" t="s">
         <v>564</v>
       </c>
-      <c r="L32" s="58" t="s">
+      <c r="L32" s="54" t="s">
         <v>565</v>
       </c>
-      <c r="M32" s="68"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="68"/>
-      <c r="S32" s="68"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" s="67"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="62">
+      <c r="A33" s="63"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="58">
         <v>27</v>
       </c>
-      <c r="D33" s="58" t="s">
+      <c r="D33" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="E33" s="62" t="s">
+      <c r="E33" s="58" t="s">
         <v>566</v>
       </c>
-      <c r="F33" s="62" t="s">
+      <c r="F33" s="58" t="s">
         <v>567</v>
       </c>
-      <c r="G33" s="57" t="s">
+      <c r="G33" s="53" t="s">
         <v>568</v>
       </c>
-      <c r="H33" s="62" t="s">
+      <c r="H33" s="58" t="s">
         <v>569</v>
       </c>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="67"/>
-      <c r="B34" s="55" t="s">
+      <c r="A34" s="63"/>
+      <c r="B34" s="51" t="s">
         <v>570</v>
       </c>
-      <c r="C34" s="58">
+      <c r="C34" s="54">
         <v>32</v>
       </c>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="E34" s="58" t="s">
+      <c r="E34" s="54" t="s">
         <v>571</v>
       </c>
-      <c r="F34" s="59" t="s">
+      <c r="F34" s="55" t="s">
         <v>572</v>
       </c>
-      <c r="G34" s="58" t="s">
+      <c r="G34" s="54" t="s">
         <v>573</v>
       </c>
-      <c r="H34" s="58" t="s">
+      <c r="H34" s="54" t="s">
         <v>574</v>
       </c>
-      <c r="I34" s="58" t="s">
+      <c r="I34" s="54" t="s">
         <v>575</v>
       </c>
-      <c r="J34" s="58" t="s">
+      <c r="J34" s="54" t="s">
         <v>576</v>
       </c>
-      <c r="K34" s="59" t="s">
+      <c r="K34" s="55" t="s">
         <v>577</v>
       </c>
-      <c r="L34" s="58" t="s">
+      <c r="L34" s="54" t="s">
         <v>578</v>
       </c>
-      <c r="M34" s="68"/>
-      <c r="N34" s="67"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="68"/>
-      <c r="S34" s="68"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="64"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="60"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="62">
+      <c r="A35" s="56"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="58">
         <v>32</v>
       </c>
-      <c r="D35" s="58" t="s">
+      <c r="D35" s="54" t="s">
         <v>579</v>
       </c>
-      <c r="E35" s="62" t="s">
+      <c r="E35" s="58" t="s">
         <v>580</v>
       </c>
-      <c r="F35" s="62" t="s">
+      <c r="F35" s="58" t="s">
         <v>581</v>
       </c>
-      <c r="G35" s="58" t="s">
+      <c r="G35" s="54" t="s">
         <v>582</v>
       </c>
-      <c r="H35" s="62" t="s">
+      <c r="H35" s="58" t="s">
         <v>583</v>
       </c>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="66"/>
-      <c r="Q35" s="66"/>
-      <c r="R35" s="66"/>
-      <c r="S35" s="66"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="51" t="s">
         <v>584</v>
       </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="57">
+      <c r="B36" s="52"/>
+      <c r="C36" s="53">
         <v>537</v>
       </c>
-      <c r="D36" s="58" t="s">
+      <c r="D36" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="E36" s="58" t="s">
+      <c r="E36" s="54" t="s">
         <v>585</v>
       </c>
-      <c r="F36" s="59" t="s">
+      <c r="F36" s="55" t="s">
         <v>586</v>
       </c>
-      <c r="G36" s="57" t="s">
+      <c r="G36" s="53" t="s">
         <v>587</v>
       </c>
-      <c r="H36" s="57" t="s">
+      <c r="H36" s="53" t="s">
         <v>588</v>
       </c>
-      <c r="I36" s="58" t="s">
+      <c r="I36" s="54" t="s">
         <v>589</v>
       </c>
-      <c r="J36" s="58" t="s">
+      <c r="J36" s="54" t="s">
         <v>590</v>
       </c>
-      <c r="K36" s="58" t="s">
+      <c r="K36" s="54" t="s">
         <v>591</v>
       </c>
-      <c r="L36" s="58" t="s">
+      <c r="L36" s="54" t="s">
         <v>592</v>
       </c>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="68"/>
-      <c r="P36" s="68"/>
-      <c r="Q36" s="68"/>
-      <c r="R36" s="68"/>
-      <c r="S36" s="68"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="64"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" s="60"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="61">
+      <c r="A37" s="56"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="57">
         <v>537</v>
       </c>
-      <c r="D37" s="62" t="s">
+      <c r="D37" s="58" t="s">
         <v>593</v>
       </c>
-      <c r="E37" s="63" t="s">
+      <c r="E37" s="59" t="s">
         <v>594</v>
       </c>
-      <c r="F37" s="63" t="s">
+      <c r="F37" s="59" t="s">
         <v>595</v>
       </c>
-      <c r="G37" s="63" t="s">
+      <c r="G37" s="59" t="s">
         <v>596</v>
       </c>
-      <c r="H37" s="61" t="s">
+      <c r="H37" s="57" t="s">
         <v>597</v>
       </c>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="66"/>
-      <c r="Q37" s="66"/>
-      <c r="R37" s="66"/>
-      <c r="S37" s="66"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
     </row>
     <row r="38" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="67"/>
-      <c r="B38" s="78" t="s">
+      <c r="A38" s="63"/>
+      <c r="B38" s="74" t="s">
         <v>598</v>
       </c>
-      <c r="C38" s="62">
+      <c r="C38" s="58">
         <v>9</v>
       </c>
-      <c r="D38" s="58" t="s">
+      <c r="D38" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="E38" s="62" t="s">
+      <c r="E38" s="58" t="s">
         <v>599</v>
       </c>
-      <c r="F38" s="62" t="s">
+      <c r="F38" s="58" t="s">
         <v>600</v>
       </c>
-      <c r="G38" s="62" t="s">
+      <c r="G38" s="58" t="s">
         <v>601</v>
       </c>
-      <c r="H38" s="62" t="s">
+      <c r="H38" s="58" t="s">
         <v>602</v>
       </c>
-      <c r="I38" s="63" t="s">
+      <c r="I38" s="59" t="s">
         <v>603</v>
       </c>
-      <c r="J38" s="58" t="s">
+      <c r="J38" s="54" t="s">
         <v>430</v>
       </c>
-      <c r="K38" s="58" t="s">
+      <c r="K38" s="54" t="s">
         <v>442</v>
       </c>
-      <c r="L38" s="63" t="s">
+      <c r="L38" s="59" t="s">
         <v>604</v>
       </c>
-      <c r="M38" s="72"/>
-      <c r="N38" s="67"/>
-      <c r="O38" s="60"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="72"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="68"/>
+      <c r="S38" s="68"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39" s="67"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="62">
+      <c r="A39" s="63"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="58">
         <v>9</v>
       </c>
-      <c r="D39" s="58" t="s">
+      <c r="D39" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="E39" s="62" t="s">
+      <c r="E39" s="58" t="s">
         <v>605</v>
       </c>
-      <c r="F39" s="62" t="s">
+      <c r="F39" s="58" t="s">
         <v>606</v>
       </c>
-      <c r="G39" s="62" t="s">
+      <c r="G39" s="58" t="s">
         <v>607</v>
       </c>
-      <c r="H39" s="62" t="s">
+      <c r="H39" s="58" t="s">
         <v>608</v>
       </c>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="65"/>
-      <c r="M39" s="66"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="60"/>
-      <c r="P39" s="66"/>
-      <c r="Q39" s="66"/>
-      <c r="R39" s="66"/>
-      <c r="S39" s="66"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="62"/>
+      <c r="S39" s="62"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A40" s="67"/>
-      <c r="B40" s="79" t="s">
+      <c r="A40" s="63"/>
+      <c r="B40" s="75" t="s">
         <v>609</v>
       </c>
-      <c r="C40" s="62">
+      <c r="C40" s="58">
         <v>0</v>
       </c>
-      <c r="D40" s="62">
+      <c r="D40" s="58">
         <v>0</v>
       </c>
-      <c r="E40" s="62">
+      <c r="E40" s="58">
         <v>0</v>
       </c>
-      <c r="F40" s="62">
+      <c r="F40" s="58">
         <v>0</v>
       </c>
-      <c r="G40" s="62">
+      <c r="G40" s="58">
         <v>0</v>
       </c>
-      <c r="H40" s="62">
+      <c r="H40" s="58">
         <v>0</v>
       </c>
-      <c r="I40" s="62">
+      <c r="I40" s="58">
         <v>0</v>
       </c>
-      <c r="J40" s="62">
+      <c r="J40" s="58">
         <v>0</v>
       </c>
-      <c r="K40" s="62">
+      <c r="K40" s="58">
         <v>0</v>
       </c>
-      <c r="L40" s="62">
+      <c r="L40" s="58">
         <v>0</v>
       </c>
-      <c r="M40" s="66"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="60"/>
-      <c r="P40" s="66"/>
-      <c r="Q40" s="66"/>
-      <c r="R40" s="66"/>
-      <c r="S40" s="66"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="62"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B41" s="23"/>
@@ -9647,7 +9649,7 @@
       <c r="S69" s="12"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A70" s="51" t="s">
+      <c r="A70" s="87" t="s">
         <v>213</v>
       </c>
       <c r="B70" s="2"/>
@@ -9690,7 +9692,7 @@
       <c r="S70" s="13"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A71" s="51"/>
+      <c r="A71" s="87"/>
       <c r="B71" s="2"/>
       <c r="C71" s="8">
         <v>936</v>
@@ -11132,20 +11134,20 @@
       <c r="S109" s="12"/>
     </row>
     <row r="110" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="52" t="s">
+      <c r="A110" s="88" t="s">
         <v>384</v>
       </c>
-      <c r="B110" s="53"/>
-      <c r="C110" s="53"/>
-      <c r="D110" s="53"/>
-      <c r="E110" s="53"/>
-      <c r="F110" s="53"/>
-      <c r="G110" s="53"/>
-      <c r="H110" s="53"/>
-      <c r="I110" s="53"/>
-      <c r="J110" s="53"/>
-      <c r="K110" s="53"/>
-      <c r="L110" s="54"/>
+      <c r="B110" s="89"/>
+      <c r="C110" s="89"/>
+      <c r="D110" s="89"/>
+      <c r="E110" s="89"/>
+      <c r="F110" s="89"/>
+      <c r="G110" s="89"/>
+      <c r="H110" s="89"/>
+      <c r="I110" s="89"/>
+      <c r="J110" s="89"/>
+      <c r="K110" s="89"/>
+      <c r="L110" s="90"/>
       <c r="M110" s="50"/>
       <c r="N110" s="50"/>
       <c r="O110" s="50"/>
